--- a/Analysis/Saskatchewan_BBA/Data_Cleaned/species_to_model_covariate_selection.xlsx
+++ b/Analysis/Saskatchewan_BBA/Data_Cleaned/species_to_model_covariate_selection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://007gc-my.sharepoint.com/personal/david_iles_ec_gc_ca/Documents/Iles/Projects/Landbirds/Landbird-Distribution-Modeling-ECCC/Analysis/Saskatchewan_BBA/Data_Cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{E619C4E3-DC32-489F-9685-DF6C172B6853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90B2427E-14D8-430F-8F49-E63BC91277AC}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{E619C4E3-DC32-489F-9685-DF6C172B6853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{763F1800-14D7-407B-91C6-13CBD31E0277}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_to_model_Atlas" sheetId="1" r:id="rId1"/>
@@ -3533,6 +3533,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -45517,14 +45521,14 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A44" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="600" topLeftCell="A7" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
     <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="186.85546875" bestFit="1" customWidth="1"/>
